--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H2">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N2">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O2">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P2">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q2">
-        <v>65.83251936601846</v>
+        <v>70.17877846295556</v>
       </c>
       <c r="R2">
-        <v>65.83251936601846</v>
+        <v>631.6090061666</v>
       </c>
       <c r="S2">
-        <v>0.002042056087991296</v>
+        <v>0.001725811502336594</v>
       </c>
       <c r="T2">
-        <v>0.002042056087991296</v>
+        <v>0.001725811502336594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H3">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N3">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O3">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P3">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q3">
-        <v>354.2607448039121</v>
+        <v>370.8862706474889</v>
       </c>
       <c r="R3">
-        <v>354.2607448039121</v>
+        <v>3337.9764358274</v>
       </c>
       <c r="S3">
-        <v>0.01098879881295529</v>
+        <v>0.009120702952674373</v>
       </c>
       <c r="T3">
-        <v>0.01098879881295529</v>
+        <v>0.009120702952674375</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H4">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N4">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O4">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P4">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q4">
-        <v>86.24667929891537</v>
+        <v>95.74967176675555</v>
       </c>
       <c r="R4">
-        <v>86.24667929891537</v>
+        <v>861.7470459008</v>
       </c>
       <c r="S4">
-        <v>0.002675282037319283</v>
+        <v>0.002354641794844671</v>
       </c>
       <c r="T4">
-        <v>0.002675282037319283</v>
+        <v>0.002354641794844671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H5">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N5">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O5">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P5">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q5">
-        <v>67.85844894892145</v>
+        <v>78.50256671933333</v>
       </c>
       <c r="R5">
-        <v>67.85844894892145</v>
+        <v>706.523100474</v>
       </c>
       <c r="S5">
-        <v>0.00210489831062609</v>
+        <v>0.001930507135838592</v>
       </c>
       <c r="T5">
-        <v>0.00210489831062609</v>
+        <v>0.001930507135838592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H6">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.41694582444921</v>
+        <v>6.674904333333333</v>
       </c>
       <c r="N6">
-        <v>6.41694582444921</v>
+        <v>20.024713</v>
       </c>
       <c r="O6">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="P6">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="Q6">
-        <v>192.0079533875215</v>
+        <v>208.8619840294111</v>
       </c>
       <c r="R6">
-        <v>192.0079533875215</v>
+        <v>1879.7578562647</v>
       </c>
       <c r="S6">
-        <v>0.005955886451462884</v>
+        <v>0.005136259455257824</v>
       </c>
       <c r="T6">
-        <v>0.005955886451462884</v>
+        <v>0.005136259455257826</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N7">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O7">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P7">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q7">
-        <v>370.3435195143873</v>
+        <v>381.797682474362</v>
       </c>
       <c r="R7">
-        <v>370.3435195143873</v>
+        <v>3436.179142269258</v>
       </c>
       <c r="S7">
-        <v>0.0114876697102807</v>
+        <v>0.009389032502575121</v>
       </c>
       <c r="T7">
-        <v>0.0114876697102807</v>
+        <v>0.009389032502575121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N8">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O8">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P8">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q8">
-        <v>1992.908251422489</v>
+        <v>2017.754108808218</v>
       </c>
       <c r="R8">
-        <v>1992.908251422489</v>
+        <v>18159.78697927396</v>
       </c>
       <c r="S8">
-        <v>0.06181793537322911</v>
+        <v>0.04961988974638947</v>
       </c>
       <c r="T8">
-        <v>0.06181793537322911</v>
+        <v>0.04961988974638948</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N9">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O9">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P9">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q9">
-        <v>485.1842078290001</v>
+        <v>520.912497750656</v>
       </c>
       <c r="R9">
-        <v>485.1842078290001</v>
+        <v>4688.212479755904</v>
       </c>
       <c r="S9">
-        <v>0.01504990808396531</v>
+        <v>0.01281009444761867</v>
       </c>
       <c r="T9">
-        <v>0.01504990808396531</v>
+        <v>0.01281009444761867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N10">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O10">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P10">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q10">
-        <v>381.740468913348</v>
+        <v>427.08207093618</v>
       </c>
       <c r="R10">
-        <v>381.740468913348</v>
+        <v>3843.73863842562</v>
       </c>
       <c r="S10">
-        <v>0.0118411911937178</v>
+        <v>0.01050265004045999</v>
       </c>
       <c r="T10">
-        <v>0.0118411911937178</v>
+        <v>0.01050265004045999</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.41694582444921</v>
+        <v>6.674904333333333</v>
       </c>
       <c r="N11">
-        <v>6.41694582444921</v>
+        <v>20.024713</v>
       </c>
       <c r="O11">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="P11">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="Q11">
-        <v>1080.148563613901</v>
+        <v>1136.283976523179</v>
       </c>
       <c r="R11">
-        <v>1080.148563613901</v>
+        <v>10226.55578870861</v>
       </c>
       <c r="S11">
-        <v>0.03350508185778736</v>
+        <v>0.02794309048339453</v>
       </c>
       <c r="T11">
-        <v>0.03350508185778736</v>
+        <v>0.02794309048339454</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H12">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N12">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O12">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P12">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q12">
-        <v>1300.702614301635</v>
+        <v>1354.601338923055</v>
       </c>
       <c r="R12">
-        <v>1300.702614301635</v>
+        <v>12191.41205030749</v>
       </c>
       <c r="S12">
-        <v>0.04034643847417272</v>
+        <v>0.033311873232846</v>
       </c>
       <c r="T12">
-        <v>0.04034643847417272</v>
+        <v>0.03331187323284601</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H13">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N13">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O13">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P13">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q13">
-        <v>6999.396063653353</v>
+        <v>7158.902588657402</v>
       </c>
       <c r="R13">
-        <v>6999.396063653353</v>
+        <v>64430.12329791662</v>
       </c>
       <c r="S13">
-        <v>0.2171139655855782</v>
+        <v>0.1760491804247321</v>
       </c>
       <c r="T13">
-        <v>0.2171139655855782</v>
+        <v>0.1760491804247321</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H14">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N14">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O14">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P14">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q14">
-        <v>1704.040530717405</v>
+        <v>1848.174568116124</v>
       </c>
       <c r="R14">
-        <v>1704.040530717405</v>
+        <v>16633.57111304512</v>
       </c>
       <c r="S14">
-        <v>0.05285755996346658</v>
+        <v>0.04544965013411329</v>
       </c>
       <c r="T14">
-        <v>0.05285755996346658</v>
+        <v>0.0454496501341133</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H15">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N15">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O15">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P15">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q15">
-        <v>1340.730429281979</v>
+        <v>1515.268351999567</v>
       </c>
       <c r="R15">
-        <v>1340.730429281979</v>
+        <v>13637.4151679961</v>
       </c>
       <c r="S15">
-        <v>0.04158805954620166</v>
+        <v>0.03726293914317491</v>
       </c>
       <c r="T15">
-        <v>0.04158805954620166</v>
+        <v>0.03726293914317493</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H16">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.41694582444921</v>
+        <v>6.674904333333333</v>
       </c>
       <c r="N16">
-        <v>6.41694582444921</v>
+        <v>20.024713</v>
       </c>
       <c r="O16">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="P16">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="Q16">
-        <v>3793.645592527172</v>
+        <v>4031.485434955383</v>
       </c>
       <c r="R16">
-        <v>3793.645592527172</v>
+        <v>36283.36891459845</v>
       </c>
       <c r="S16">
-        <v>0.1176749295409806</v>
+        <v>0.0991408526556367</v>
       </c>
       <c r="T16">
-        <v>0.1176749295409806</v>
+        <v>0.09914085265563673</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H17">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N17">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O17">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P17">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q17">
-        <v>959.7798022499795</v>
+        <v>1558.495461014081</v>
       </c>
       <c r="R17">
-        <v>959.7798022499795</v>
+        <v>14026.45914912673</v>
       </c>
       <c r="S17">
-        <v>0.0297713684238451</v>
+        <v>0.03832596479827928</v>
       </c>
       <c r="T17">
-        <v>0.0297713684238451</v>
+        <v>0.03832596479827929</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H18">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N18">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O18">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P18">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q18">
-        <v>5164.80777079811</v>
+        <v>8236.458114779905</v>
       </c>
       <c r="R18">
-        <v>5164.80777079811</v>
+        <v>74128.12303301916</v>
       </c>
       <c r="S18">
-        <v>0.1602069502007714</v>
+        <v>0.2025480417916368</v>
       </c>
       <c r="T18">
-        <v>0.1602069502007714</v>
+        <v>0.2025480417916368</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H19">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N19">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O19">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P19">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q19">
-        <v>1257.400166352418</v>
+        <v>2126.361160886358</v>
       </c>
       <c r="R19">
-        <v>1257.400166352418</v>
+        <v>19137.25044797722</v>
       </c>
       <c r="S19">
-        <v>0.03900324170286296</v>
+        <v>0.05229071565439899</v>
       </c>
       <c r="T19">
-        <v>0.03900324170286296</v>
+        <v>0.052290715654399</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H20">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N20">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O20">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P20">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q20">
-        <v>989.3160605183317</v>
+        <v>1743.34601698172</v>
       </c>
       <c r="R20">
-        <v>989.3160605183317</v>
+        <v>15690.11415283548</v>
       </c>
       <c r="S20">
-        <v>0.03068755234927004</v>
+        <v>0.04287174377433628</v>
       </c>
       <c r="T20">
-        <v>0.03068755234927004</v>
+        <v>0.04287174377433629</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H21">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.41694582444921</v>
+        <v>6.674904333333333</v>
       </c>
       <c r="N21">
-        <v>6.41694582444921</v>
+        <v>20.024713</v>
       </c>
       <c r="O21">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="P21">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="Q21">
-        <v>2799.305834068131</v>
+        <v>4638.303219541733</v>
       </c>
       <c r="R21">
-        <v>2799.305834068131</v>
+        <v>41744.72897587559</v>
       </c>
       <c r="S21">
-        <v>0.08683154732126278</v>
+        <v>0.1140634992932429</v>
       </c>
       <c r="T21">
-        <v>0.08683154732126278</v>
+        <v>0.1140634992932429</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H22">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N22">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O22">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P22">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q22">
-        <v>73.26354776267921</v>
+        <v>97.4807962762309</v>
       </c>
       <c r="R22">
-        <v>73.26354776267921</v>
+        <v>877.327166486078</v>
       </c>
       <c r="S22">
-        <v>0.002272558838358011</v>
+        <v>0.002397212991663184</v>
       </c>
       <c r="T22">
-        <v>0.002272558838358011</v>
+        <v>0.002397212991663184</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H23">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N23">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O23">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P23">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q23">
-        <v>394.2489099206632</v>
+        <v>515.1740993856604</v>
       </c>
       <c r="R23">
-        <v>394.2489099206632</v>
+        <v>4636.566894470942</v>
       </c>
       <c r="S23">
-        <v>0.01222918998757002</v>
+        <v>0.01266897780067494</v>
       </c>
       <c r="T23">
-        <v>0.01222918998757002</v>
+        <v>0.01266897780067494</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H24">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N24">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O24">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P24">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q24">
-        <v>95.98201267457766</v>
+        <v>132.9996681537849</v>
       </c>
       <c r="R24">
-        <v>95.98201267457766</v>
+        <v>1196.997013384064</v>
       </c>
       <c r="S24">
-        <v>0.002977261924764663</v>
+        <v>0.003270680426960018</v>
       </c>
       <c r="T24">
-        <v>0.002977261924764663</v>
+        <v>0.003270680426960018</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H25">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N25">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O25">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P25">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q25">
-        <v>75.51815977191447</v>
+        <v>109.0428314817133</v>
       </c>
       <c r="R25">
-        <v>75.51815977191447</v>
+        <v>981.3854833354201</v>
       </c>
       <c r="S25">
-        <v>0.00234249455134386</v>
+        <v>0.00268154243975375</v>
       </c>
       <c r="T25">
-        <v>0.00234249455134386</v>
+        <v>0.002681542439753751</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H26">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.41694582444921</v>
+        <v>6.674904333333333</v>
       </c>
       <c r="N26">
-        <v>6.41694582444921</v>
+        <v>20.024713</v>
       </c>
       <c r="O26">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="P26">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="Q26">
-        <v>213.6813842048127</v>
+        <v>290.1166557888668</v>
       </c>
       <c r="R26">
-        <v>213.6813842048127</v>
+        <v>2611.049902099801</v>
       </c>
       <c r="S26">
-        <v>0.006628173670216252</v>
+        <v>0.007134445377161193</v>
       </c>
       <c r="T26">
-        <v>0.006628173670216252</v>
+        <v>0.007134445377161193</v>
       </c>
     </row>
   </sheetData>
